--- a/_RESULTS/Error_budget/error_budget_area1_J.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1_J.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,19 +408,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5893107331232554</v>
+        <v>0.4240605417690221</v>
       </c>
       <c r="E2" t="n">
-        <v>3.060484344609506</v>
+        <v>2.826207004934611</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
@@ -432,190 +432,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7886576222970795</v>
+        <v>0.549008061904701</v>
       </c>
       <c r="E3" t="n">
-        <v>3.110298473443736</v>
+        <v>2.739973608910165</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.0053</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2.984007837949191</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9093571160111733</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.184758371715387</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>2.984007837949191</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>40000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.985960541550874</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.265489701447508</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>2.984007837949191</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>40000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.067259232148235</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.326358580172142</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>2.984007837949191</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>40000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.116261594067033</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.396047647239217</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>2.984007837949191</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>40000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.148789613060953</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.417957387330821</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>2.984007837949191</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>40000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.166083002543728</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.429796537247454</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>2.984007837949191</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>40000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.172342820184567</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.429793597509479</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
         <v>2.984007837949191</v>
       </c>
     </row>
